--- a/EJ4/Integrador/Mediciones/Bode PlotTool Integrador Compensado.xlsx
+++ b/EJ4/Integrador/Mediciones/Bode PlotTool Integrador Compensado.xlsx
@@ -458,7 +458,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="A2" sqref="A2:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,7 +494,7 @@
         <v>27.7</v>
       </c>
       <c r="D2" s="5">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="E2" s="4">
         <f>IF(ISBLANK(C2), , C2/A2)</f>
